--- a/Financial Data and Graphs/.xlsx files/State wise Aggregate Deposit and Bank Credit of SCBs.xlsx
+++ b/Financial Data and Graphs/.xlsx files/State wise Aggregate Deposit and Bank Credit of SCBs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" firstSheet="17" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="18" r:id="rId1"/>
@@ -1143,11 +1143,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="569913696"/>
-        <c:axId val="569915656"/>
+        <c:axId val="446498232"/>
+        <c:axId val="446493528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="569913696"/>
+        <c:axId val="446498232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1190,7 +1190,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569915656"/>
+        <c:crossAx val="446493528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1198,7 +1198,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="569915656"/>
+        <c:axId val="446493528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1329,7 +1329,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569913696"/>
+        <c:crossAx val="446498232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1418,7 +1418,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1568,11 +1567,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="563350400"/>
-        <c:axId val="563350792"/>
+        <c:axId val="559113304"/>
+        <c:axId val="559116440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="563350400"/>
+        <c:axId val="559113304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1615,7 +1614,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563350792"/>
+        <c:crossAx val="559116440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1623,7 +1622,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="563350792"/>
+        <c:axId val="559116440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1708,7 +1707,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1783,7 +1781,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563350400"/>
+        <c:crossAx val="559113304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3083,11 +3081,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="563360592"/>
-        <c:axId val="563362160"/>
+        <c:axId val="559112912"/>
+        <c:axId val="559116832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="563360592"/>
+        <c:axId val="559112912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3130,7 +3128,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563362160"/>
+        <c:crossAx val="559116832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3138,7 +3136,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="563362160"/>
+        <c:axId val="559116832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3262,7 +3260,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563360592"/>
+        <c:crossAx val="559112912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3384,6 +3382,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4593,11 +4592,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="563364120"/>
-        <c:axId val="563364512"/>
+        <c:axId val="559114872"/>
+        <c:axId val="559111736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="563364120"/>
+        <c:axId val="559114872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4640,7 +4639,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563364512"/>
+        <c:crossAx val="559111736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4648,7 +4647,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="563364512"/>
+        <c:axId val="559111736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4712,6 +4711,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4772,7 +4772,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563364120"/>
+        <c:crossAx val="559114872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4786,6 +4786,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5042,11 +5043,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="569907816"/>
-        <c:axId val="569908992"/>
+        <c:axId val="556998368"/>
+        <c:axId val="556996800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="569907816"/>
+        <c:axId val="556998368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5089,7 +5090,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569908992"/>
+        <c:crossAx val="556996800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5097,7 +5098,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="569908992"/>
+        <c:axId val="556996800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5229,7 +5230,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569907816"/>
+        <c:crossAx val="556998368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5506,11 +5507,11 @@
           </c:downBars>
         </c:upDownBars>
         <c:smooth val="0"/>
-        <c:axId val="569928984"/>
-        <c:axId val="569930944"/>
+        <c:axId val="556994840"/>
+        <c:axId val="556998760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="569928984"/>
+        <c:axId val="556994840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5553,7 +5554,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569930944"/>
+        <c:crossAx val="556998760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5561,7 +5562,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="569930944"/>
+        <c:axId val="556998760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5688,7 +5689,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569928984"/>
+        <c:crossAx val="556994840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5927,11 +5928,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="569919968"/>
-        <c:axId val="569925456"/>
+        <c:axId val="556999936"/>
+        <c:axId val="556995624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="569919968"/>
+        <c:axId val="556999936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5974,7 +5975,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569925456"/>
+        <c:crossAx val="556995624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5982,7 +5983,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="569925456"/>
+        <c:axId val="556995624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6108,7 +6109,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569919968"/>
+        <c:crossAx val="556999936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6347,11 +6348,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="569921536"/>
-        <c:axId val="569920360"/>
+        <c:axId val="556997192"/>
+        <c:axId val="557000328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="569921536"/>
+        <c:axId val="556997192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6394,7 +6395,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569920360"/>
+        <c:crossAx val="557000328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6402,7 +6403,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="569920360"/>
+        <c:axId val="557000328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6543,7 +6544,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569921536"/>
+        <c:crossAx val="556997192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6782,11 +6783,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="569930552"/>
-        <c:axId val="569921928"/>
+        <c:axId val="556999544"/>
+        <c:axId val="556997976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="569930552"/>
+        <c:axId val="556999544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6829,7 +6830,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569921928"/>
+        <c:crossAx val="556997976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6837,7 +6838,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="569921928"/>
+        <c:axId val="556997976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6963,7 +6964,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569930552"/>
+        <c:crossAx val="556999544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7052,7 +7053,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7202,11 +7202,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="569924280"/>
-        <c:axId val="569924672"/>
+        <c:axId val="557000720"/>
+        <c:axId val="556994448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="569924280"/>
+        <c:axId val="557000720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7249,7 +7249,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569924672"/>
+        <c:crossAx val="556994448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7257,7 +7257,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="569924672"/>
+        <c:axId val="556994448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7328,7 +7328,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7389,7 +7388,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569924280"/>
+        <c:crossAx val="557000720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7478,7 +7477,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7628,11 +7626,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="569931728"/>
-        <c:axId val="569936040"/>
+        <c:axId val="559117616"/>
+        <c:axId val="559117224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="569931728"/>
+        <c:axId val="559117616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7675,7 +7673,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569936040"/>
+        <c:crossAx val="559117224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7683,7 +7681,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="569936040"/>
+        <c:axId val="559117224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7754,7 +7752,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7815,7 +7812,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569931728"/>
+        <c:crossAx val="559117616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7904,7 +7901,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8054,11 +8050,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="569932512"/>
-        <c:axId val="563348832"/>
+        <c:axId val="559110952"/>
+        <c:axId val="559115264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="569932512"/>
+        <c:axId val="559110952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8101,7 +8097,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563348832"/>
+        <c:crossAx val="559115264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8109,7 +8105,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="563348832"/>
+        <c:axId val="559115264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8180,7 +8176,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8241,7 +8236,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569932512"/>
+        <c:crossAx val="559110952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14982,7 +14977,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15020,7 +15015,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15058,7 +15053,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15096,7 +15091,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15134,7 +15129,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15172,7 +15167,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15210,7 +15205,7 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15248,7 +15243,7 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15286,7 +15281,7 @@
         <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15324,7 +15319,7 @@
         <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15362,7 +15357,7 @@
         <xdr:cNvPr id="12" name="Chart 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15405,7 +15400,7 @@
         <xdr:cNvPr id="14" name="Chart 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1100-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20432,47 +20427,47 @@
         <v>99</v>
       </c>
       <c r="B3" s="39">
-        <f xml:space="preserve"> SUM(B1:B2)</f>
+        <f t="shared" ref="B3:L3" si="0" xml:space="preserve"> SUM(B1:B2)</f>
         <v>0</v>
       </c>
       <c r="C3" s="39">
-        <f xml:space="preserve"> SUM(C1:C2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D3" s="39">
-        <f xml:space="preserve"> SUM(D1:D2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E3" s="39">
-        <f xml:space="preserve"> SUM(E1:E2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F3" s="39">
-        <f xml:space="preserve"> SUM(F1:F2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G3" s="39">
-        <f xml:space="preserve"> SUM(G1:G2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H3" s="39">
-        <f xml:space="preserve"> SUM(H1:H2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I3" s="39">
-        <f xml:space="preserve"> SUM(I1:I2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J3" s="39">
-        <f xml:space="preserve"> SUM(J1:J2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K3" s="39">
-        <f xml:space="preserve"> SUM(K1:K2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L3" s="39">
-        <f xml:space="preserve"> SUM(L1:L2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -22346,7 +22341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
@@ -30003,7 +29998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -30132,22 +30127,22 @@
         <v>35.094044049755688</v>
       </c>
       <c r="Q2" s="59">
-        <f>M2+N2</f>
+        <f t="shared" ref="Q2:Q14" si="0">M2+N2</f>
         <v>5726800.2096908074</v>
       </c>
       <c r="R2" s="60">
-        <f>Q2*(P2/100)</f>
+        <f t="shared" ref="R2:R14" si="1">Q2*(P2/100)</f>
         <v>2009765.7882303931</v>
       </c>
       <c r="S2" s="63">
         <v>123144223</v>
       </c>
       <c r="T2" s="64">
-        <f>(O2/S2)*100</f>
+        <f t="shared" ref="T2:T14" si="2">(O2/S2)*100</f>
         <v>5.4939645849241339E-2</v>
       </c>
       <c r="U2" s="65">
-        <f>(T2/100)*Q2</f>
+        <f t="shared" ref="U2:U14" si="3">(T2/100)*Q2</f>
         <v>3146.2837536977399</v>
       </c>
     </row>
@@ -30202,22 +30197,22 @@
         <v>12.187341141807845</v>
       </c>
       <c r="Q3" s="59">
-        <f>M3+N3</f>
+        <f t="shared" si="0"/>
         <v>1917956.1945063332</v>
       </c>
       <c r="R3" s="60">
-        <f>Q3*(P3/100)</f>
+        <f t="shared" si="1"/>
         <v>233747.86437492244</v>
       </c>
       <c r="S3" s="63">
         <v>77841267</v>
       </c>
       <c r="T3" s="64">
-        <f>(O3/S3)*100</f>
+        <f t="shared" si="2"/>
         <v>3.0183218883115044E-2</v>
       </c>
       <c r="U3" s="65">
-        <f>(T3/100)*Q3</f>
+        <f t="shared" si="3"/>
         <v>578.90091627011032</v>
       </c>
     </row>
@@ -30272,22 +30267,22 @@
         <v>10.293492131008081</v>
       </c>
       <c r="Q4" s="59">
-        <f>M4+N4</f>
+        <f t="shared" si="0"/>
         <v>2738060.1742432406</v>
       </c>
       <c r="R4" s="60">
-        <f>Q4*(P4/100)</f>
+        <f t="shared" si="1"/>
         <v>281842.00857799413</v>
       </c>
       <c r="S4" s="63">
         <v>18710922</v>
       </c>
       <c r="T4" s="64">
-        <f>(O4/S4)*100</f>
+        <f t="shared" si="2"/>
         <v>0.1060557037221362</v>
       </c>
       <c r="U4" s="65">
-        <f>(T4/100)*Q4</f>
+        <f t="shared" si="3"/>
         <v>2903.8689861292173</v>
       </c>
     </row>
@@ -30342,22 +30337,22 @@
         <v>8.7113942173024448</v>
       </c>
       <c r="Q5" s="59">
-        <f>M5+N5</f>
+        <f t="shared" si="0"/>
         <v>1162041.8052249087</v>
       </c>
       <c r="R5" s="60">
-        <f>Q5*(P5/100)</f>
+        <f t="shared" si="1"/>
         <v>101230.04262299964</v>
       </c>
       <c r="S5" s="63">
         <v>63872399</v>
       </c>
       <c r="T5" s="64">
-        <f>(O5/S5)*100</f>
+        <f t="shared" si="2"/>
         <v>2.629304717363129E-2</v>
       </c>
       <c r="U5" s="65">
-        <f>(T5/100)*Q5</f>
+        <f t="shared" si="3"/>
         <v>305.53620002510189</v>
       </c>
     </row>
@@ -30412,22 +30407,22 @@
         <v>4.6581112344513498</v>
       </c>
       <c r="Q6" s="59">
-        <f>M6+N6</f>
+        <f t="shared" si="0"/>
         <v>706457.84395264601</v>
       </c>
       <c r="R6" s="60">
-        <f>Q6*(P6/100)</f>
+        <f t="shared" si="1"/>
         <v>32907.592195820987</v>
       </c>
       <c r="S6" s="63">
         <v>81032689</v>
       </c>
       <c r="T6" s="64">
-        <f>(O6/S6)*100</f>
+        <f t="shared" si="2"/>
         <v>1.1081947434818558E-2</v>
       </c>
       <c r="U6" s="65">
-        <f>(T6/100)*Q6</f>
+        <f t="shared" si="3"/>
         <v>78.289286915984746</v>
       </c>
     </row>
@@ -30482,22 +30477,22 @@
         <v>4.1959311553983252</v>
       </c>
       <c r="Q7" s="59">
-        <f>M7+N7</f>
+        <f t="shared" si="0"/>
         <v>555274.68505636102</v>
       </c>
       <c r="R7" s="60">
-        <f>Q7*(P7/100)</f>
+        <f t="shared" si="1"/>
         <v>23298.943508319782</v>
       </c>
       <c r="S7" s="63">
         <v>85358965</v>
       </c>
       <c r="T7" s="64">
-        <f>(O7/S7)*100</f>
+        <f t="shared" si="2"/>
         <v>9.476450423221509E-3</v>
       </c>
       <c r="U7" s="65">
-        <f>(T7/100)*Q7</f>
+        <f t="shared" si="3"/>
         <v>52.620330242065428</v>
       </c>
     </row>
@@ -30552,22 +30547,22 @@
         <v>4.1886690666141027</v>
       </c>
       <c r="Q8" s="59">
-        <f>M8+N8</f>
+        <f t="shared" si="0"/>
         <v>975116.58061356889</v>
       </c>
       <c r="R8" s="60">
-        <f>Q8*(P8/100)</f>
+        <f t="shared" si="1"/>
         <v>40844.40657558573</v>
       </c>
       <c r="S8" s="63">
         <v>237882725</v>
       </c>
       <c r="T8" s="64">
-        <f>(O8/S8)*100</f>
+        <f t="shared" si="2"/>
         <v>3.3945298045496997E-3</v>
       </c>
       <c r="U8" s="65">
-        <f>(T8/100)*Q8</f>
+        <f t="shared" si="3"/>
         <v>33.10062295803349</v>
       </c>
     </row>
@@ -30622,22 +30617,22 @@
         <v>2.8534821715720344</v>
       </c>
       <c r="Q9" s="59">
-        <f>M9+N9</f>
+        <f t="shared" si="0"/>
         <v>791047.50641122321</v>
       </c>
       <c r="R9" s="60">
-        <f>Q9*(P9/100)</f>
+        <f t="shared" si="1"/>
         <v>22572.399564109401</v>
       </c>
       <c r="S9" s="63">
         <v>99609303</v>
       </c>
       <c r="T9" s="64">
-        <f>(O9/S9)*100</f>
+        <f t="shared" si="2"/>
         <v>5.5225765408678743E-3</v>
       </c>
       <c r="U9" s="65">
-        <f>(T9/100)*Q9</f>
+        <f t="shared" si="3"/>
         <v>43.686204016186501</v>
       </c>
     </row>
@@ -30692,22 +30687,22 @@
         <v>1.9068170264858753</v>
       </c>
       <c r="Q10" s="59">
-        <f>M10+N10</f>
+        <f t="shared" si="0"/>
         <v>840900.77673038375</v>
       </c>
       <c r="R10" s="60">
-        <f>Q10*(P10/100)</f>
+        <f t="shared" si="1"/>
         <v>16034.439186546932</v>
       </c>
       <c r="S10" s="63">
         <v>53903393</v>
       </c>
       <c r="T10" s="64">
-        <f>(O10/S10)*100</f>
+        <f t="shared" si="2"/>
         <v>6.8196078120722385E-3</v>
       </c>
       <c r="U10" s="65">
-        <f>(T10/100)*Q10</f>
+        <f t="shared" si="3"/>
         <v>57.34613506168138</v>
       </c>
     </row>
@@ -30762,22 +30757,22 @@
         <v>2.0084862694649916</v>
       </c>
       <c r="Q11" s="59">
-        <f>M11+N11</f>
+        <f t="shared" si="0"/>
         <v>277608.2491612875</v>
       </c>
       <c r="R11" s="60">
-        <f>Q11*(P11/100)</f>
+        <f t="shared" si="1"/>
         <v>5575.7235673066225</v>
       </c>
       <c r="S11" s="63">
         <v>124799926</v>
       </c>
       <c r="T11" s="64">
-        <f>(O11/S11)*100</f>
+        <f t="shared" si="2"/>
         <v>3.1025659422266008E-3</v>
       </c>
       <c r="U11" s="65">
-        <f>(T11/100)*Q11</f>
+        <f t="shared" si="3"/>
         <v>8.612978991289669</v>
       </c>
     </row>
@@ -30832,22 +30827,22 @@
         <v>0.68834227261881298</v>
       </c>
       <c r="Q12" s="59">
-        <f>M12+N12</f>
+        <f t="shared" si="0"/>
         <v>1026841.3960939208</v>
       </c>
       <c r="R12" s="60">
-        <f>Q12*(P12/100)</f>
+        <f t="shared" si="1"/>
         <v>7068.1834020636416</v>
       </c>
       <c r="S12">
         <v>35699443</v>
       </c>
       <c r="T12" s="64">
-        <f>(O12/S12)*100</f>
+        <f t="shared" si="2"/>
         <v>3.7171448305229858E-3</v>
       </c>
       <c r="U12" s="65">
-        <f>(T12/100)*Q12</f>
+        <f t="shared" si="3"/>
         <v>38.169181872575237</v>
       </c>
     </row>
@@ -30902,22 +30897,22 @@
         <v>1.5395628222551898</v>
       </c>
       <c r="Q13" s="59">
-        <f>M13+N13</f>
+        <f t="shared" si="0"/>
         <v>803741.4558207076</v>
       </c>
       <c r="R13" s="60">
-        <f>Q13*(P13/100)</f>
+        <f t="shared" si="1"/>
         <v>12374.104640868236</v>
       </c>
       <c r="S13" s="77">
         <v>39362732</v>
       </c>
       <c r="T13" s="64">
-        <f>(O13/S13)*100</f>
+        <f t="shared" si="2"/>
         <v>7.5401270419949516E-3</v>
       </c>
       <c r="U13" s="65">
-        <f>(T13/100)*Q13</f>
+        <f t="shared" si="3"/>
         <v>60.603126858061081</v>
       </c>
     </row>
@@ -30972,22 +30967,22 @@
         <v>1.767799898330757</v>
       </c>
       <c r="Q14" s="59">
-        <f>M14+N14</f>
+        <f t="shared" si="0"/>
         <v>479776.36880629754</v>
       </c>
       <c r="R14" s="60">
-        <f>Q14*(P14/100)</f>
+        <f t="shared" si="1"/>
         <v>8481.4861599727265</v>
       </c>
       <c r="S14">
         <v>67562686</v>
       </c>
       <c r="T14" s="64">
-        <f>(O14/S14)*100</f>
+        <f t="shared" si="2"/>
         <v>5.0442044296462691E-3</v>
       </c>
       <c r="U14" s="65">
-        <f>(T14/100)*Q14</f>
+        <f t="shared" si="3"/>
         <v>24.200900847723283</v>
       </c>
     </row>
@@ -31000,76 +30995,76 @@
         <v>7299034.0012888303</v>
       </c>
       <c r="C15" s="78">
-        <f t="shared" ref="C15:S15" si="0">SUM(C2:C14)</f>
+        <f t="shared" ref="C15:S15" si="4">SUM(C2:C14)</f>
         <v>7374883.9096902609</v>
       </c>
       <c r="D15" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7541248.9963384662</v>
       </c>
       <c r="E15" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7841624.8154000007</v>
       </c>
       <c r="F15" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7798106.583159999</v>
       </c>
       <c r="G15" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>8039401.2699600011</v>
       </c>
       <c r="H15" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>8221139.8675600011</v>
       </c>
       <c r="I15" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>8586246.3527799994</v>
       </c>
       <c r="J15" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>8423708.9933737982</v>
       </c>
       <c r="K15" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>8474554.3051060103</v>
       </c>
       <c r="L15" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>8561201.1408597287</v>
       </c>
       <c r="M15" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>9048537.4996389188</v>
       </c>
       <c r="N15" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>8953085.7466727681</v>
       </c>
       <c r="O15" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>173684</v>
       </c>
       <c r="P15" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>90.0934734570655</v>
       </c>
       <c r="Q15" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>18001623.246311683</v>
       </c>
       <c r="R15" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2795742.9826069032</v>
       </c>
       <c r="S15" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1108780673</v>
       </c>
       <c r="T15" s="78"/>
       <c r="U15" s="78">
-        <f t="shared" ref="U15" si="1">SUM(U2:U14)</f>
+        <f t="shared" ref="U15" si="5">SUM(U2:U14)</f>
         <v>7331.2186238857703</v>
       </c>
     </row>
